--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D857F05-E03C-4B47-961C-288CC3881347}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0A3A2-5506-421F-BB1B-06A18F2D699E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="3390" windowWidth="28845" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="126">
   <si>
     <t>Steps</t>
   </si>
@@ -388,6 +388,27 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Step21</t>
+  </si>
+  <si>
+    <t>= spr(new Double[]{})</t>
+  </si>
+  <si>
+    <t>Step22</t>
+  </si>
+  <si>
+    <t>= (Object[]) $Step21</t>
+  </si>
+  <si>
+    <t>Step23</t>
+  </si>
+  <si>
+    <t>= new Object[]{}</t>
+  </si>
+  <si>
+    <t>= spr1(new Double[]{})</t>
   </si>
 </sst>
 </file>
@@ -782,7 +803,7 @@
   <dimension ref="A2:R65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C24"/>
+      <selection activeCell="B25" sqref="B25:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -978,6 +999,30 @@
         <v>85</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
@@ -1371,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2BE8C9-5872-405A-8490-2DC49555BAE6}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1594,13 +1639,28 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
@@ -1613,6 +1673,12 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-8844_SPR_Convertq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0A3A2-5506-421F-BB1B-06A18F2D699E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387075E-44D1-433D-8FD8-298B0D247728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="11535" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="mysprs" sheetId="8" r:id="rId4"/>
     <sheet name="mysprs2" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -156,18 +156,12 @@
     <t>Step0</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["Step2"], Map.class)</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
     <t>_res_.$Step4</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["Step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
-  </si>
-  <si>
     <t>_res_.$Step5</t>
   </si>
   <si>
@@ -186,27 +180,9 @@
     <t>_res_.$Step9</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["Step13"], Map.class)</t>
-  </si>
-  <si>
     <t>_res_.$Step10</t>
   </si>
   <si>
-    <t>= instanceOf(((Object[])$Step2["Step8"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["Step14"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>=  instanceOf(((Object[][])$Step2["Step6"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["Step15"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["Step9"])[0][0], Map.class)</t>
-  </si>
-  <si>
     <t>_res_.$Step11</t>
   </si>
   <si>
@@ -216,12 +192,6 @@
     <t>Step12</t>
   </si>
   <si>
-    <t>=  instanceOf(((Object[][])$Step2["Step10"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["Step11"])[0], Map.class)</t>
-  </si>
-  <si>
     <t>_res_.$Step12</t>
   </si>
   <si>
@@ -252,21 +222,6 @@
     <t>= Set m = new HashSet();m.add($Step2);m;</t>
   </si>
   <si>
-    <t>= instanceOf(((Map)$Step2["Step16"]).keySet().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Map)$Step2["Step16"]).values().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((List)$Step2["Step17"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["Step18"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["Step19"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
     <t>_res_.$Step14</t>
   </si>
   <si>
@@ -291,9 +246,6 @@
     <t>= $Step1 == 0 ? $Step2 : spr1($Step1)</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["Step20"], Map.class)</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult mySpr()</t>
   </si>
   <si>
@@ -342,15 +294,9 @@
     <t>Test runMySpr runMySprTest</t>
   </si>
   <si>
-    <t>_res_["Step1"] : Double</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>_res_["Step2"] : Double</t>
-  </si>
-  <si>
     <t>Spreadsheet Map runMySpr2()</t>
   </si>
   <si>
@@ -375,18 +321,6 @@
     <t>Test runMySpr2 runMySprTest2</t>
   </si>
   <si>
-    <t>_res_["Value1_Step1"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["Value2_Step2"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["Value3_Step3"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["Value4_Step4"] : Double</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -409,6 +343,72 @@
   </si>
   <si>
     <t>= spr1(new Double[]{})</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["step2"], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["step8"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>=  instanceOf(((Object[][])$Step2["step6"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["step14"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["step15"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["step13"], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["step9"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>=  instanceOf(((Object[][])$Step2["step10"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["step11"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Map)$Step2["step16"]).keySet().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Map)$Step2["step16"]).values().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((List)$Step2["step17"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["step18"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["step19"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["step20"], Map.class)</t>
+  </si>
+  <si>
+    <t>_res_["step1"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["step2"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["value1Step1"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["value2Step2"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["value3Step3"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["value4Step4"] : Double</t>
   </si>
 </sst>
 </file>
@@ -802,25 +802,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C27"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -828,7 +828,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -848,7 +848,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -858,7 +858,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -892,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -900,15 +900,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -916,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -924,16 +924,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
@@ -950,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
@@ -958,72 +958,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1031,7 +1031,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1039,7 +1039,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1047,7 +1047,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -1057,61 +1057,61 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="O33" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>37</v>
@@ -1165,61 +1165,61 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1227,7 +1227,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1235,13 +1235,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>3</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>10</v>
       </c>
@@ -1281,132 +1281,132 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1418,13 +1418,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2BE8C9-5872-405A-8490-2DC49555BAE6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1432,7 +1432,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1440,7 +1440,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1450,7 +1450,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1462,7 +1462,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1474,7 +1474,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1486,7 +1486,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1498,7 +1498,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1510,7 +1510,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1522,7 +1522,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1534,7 +1534,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,15 +1542,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1566,15 +1566,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>30</v>
       </c>
@@ -1598,86 +1598,86 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="11"/>
     </row>
   </sheetData>
@@ -1693,15 +1693,15 @@
       <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
@@ -1734,15 +1734,15 @@
       <selection activeCell="B34" sqref="B34:D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1750,43 +1750,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1797,9 +1797,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1808,43 +1808,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1853,9 +1853,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1864,42 +1864,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>37</v>
@@ -1909,22 +1909,22 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1940,20 +1940,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C063B9D-D463-454D-B64E-2E98DE8A2991}">
   <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1962,57 +1962,57 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -2021,9 +2021,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C12" s="11">
         <v>3</v>
@@ -2032,53 +2032,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -2087,9 +2087,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -2098,43 +2098,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>37</v>
@@ -2143,9 +2143,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2153,12 +2153,12 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkama\.openl\user-workspace\DEFAULT\EPBDS-8844_SPR_Convertq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E387075E-44D1-433D-8FD8-298B0D247728}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0A3A2-5506-421F-BB1B-06A18F2D699E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="11535" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="mysprs" sheetId="8" r:id="rId4"/>
     <sheet name="mysprs2" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -156,12 +156,18 @@
     <t>Step0</t>
   </si>
   <si>
+    <t>= instanceOf($Step2["Step2"], Map.class)</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
     <t>_res_.$Step4</t>
   </si>
   <si>
+    <t>= instanceOf($Step2["Step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
+  </si>
+  <si>
     <t>_res_.$Step5</t>
   </si>
   <si>
@@ -180,9 +186,27 @@
     <t>_res_.$Step9</t>
   </si>
   <si>
+    <t>= instanceOf($Step2["Step13"], Map.class)</t>
+  </si>
+  <si>
     <t>_res_.$Step10</t>
   </si>
   <si>
+    <t>= instanceOf(((Object[])$Step2["Step8"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["Step14"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>=  instanceOf(((Object[][])$Step2["Step6"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["Step15"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["Step9"])[0][0], Map.class)</t>
+  </si>
+  <si>
     <t>_res_.$Step11</t>
   </si>
   <si>
@@ -192,6 +216,12 @@
     <t>Step12</t>
   </si>
   <si>
+    <t>=  instanceOf(((Object[][])$Step2["Step10"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["Step11"])[0], Map.class)</t>
+  </si>
+  <si>
     <t>_res_.$Step12</t>
   </si>
   <si>
@@ -222,6 +252,21 @@
     <t>= Set m = new HashSet();m.add($Step2);m;</t>
   </si>
   <si>
+    <t>= instanceOf(((Map)$Step2["Step16"]).keySet().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Map)$Step2["Step16"]).values().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((List)$Step2["Step17"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["Step18"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["Step19"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
     <t>_res_.$Step14</t>
   </si>
   <si>
@@ -246,6 +291,9 @@
     <t>= $Step1 == 0 ? $Step2 : spr1($Step1)</t>
   </si>
   <si>
+    <t>= instanceOf($Step2["Step20"], Map.class)</t>
+  </si>
+  <si>
     <t>Spreadsheet SpreadsheetResult mySpr()</t>
   </si>
   <si>
@@ -294,9 +342,15 @@
     <t>Test runMySpr runMySprTest</t>
   </si>
   <si>
+    <t>_res_["Step1"] : Double</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>_res_["Step2"] : Double</t>
+  </si>
+  <si>
     <t>Spreadsheet Map runMySpr2()</t>
   </si>
   <si>
@@ -321,6 +375,18 @@
     <t>Test runMySpr2 runMySprTest2</t>
   </si>
   <si>
+    <t>_res_["Value1_Step1"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["Value2_Step2"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["Value3_Step3"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["Value4_Step4"] : Double</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -343,72 +409,6 @@
   </si>
   <si>
     <t>= spr1(new Double[]{})</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step2"], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["step8"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>=  instanceOf(((Object[][])$Step2["step6"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["step14"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["step15"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step13"], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["step9"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>=  instanceOf(((Object[][])$Step2["step10"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["step11"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Map)$Step2["step16"]).keySet().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Map)$Step2["step16"]).values().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((List)$Step2["step17"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["step18"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["step19"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf($Step2["step20"], Map.class)</t>
-  </si>
-  <si>
-    <t>_res_["step1"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["step2"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["value1Step1"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["value2Step2"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["value3Step3"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["value4Step4"] : Double</t>
   </si>
 </sst>
 </file>
@@ -802,25 +802,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R65"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:C65"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -828,7 +828,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -848,7 +848,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -858,7 +858,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -892,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -900,15 +900,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -916,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -924,16 +924,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
@@ -950,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
@@ -958,72 +958,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1031,7 +1031,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1039,7 +1039,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1047,7 +1047,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -1057,61 +1057,61 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>37</v>
@@ -1165,61 +1165,61 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1227,7 +1227,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1235,13 +1235,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>3</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>10</v>
       </c>
@@ -1281,132 +1281,132 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1418,13 +1418,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2BE8C9-5872-405A-8490-2DC49555BAE6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1432,7 +1432,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1440,7 +1440,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1450,7 +1450,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1462,7 +1462,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1474,7 +1474,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1486,7 +1486,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1498,7 +1498,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1510,7 +1510,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1522,7 +1522,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1534,7 +1534,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,15 +1542,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1566,15 +1566,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>30</v>
       </c>
@@ -1598,86 +1598,86 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="11"/>
     </row>
   </sheetData>
@@ -1693,15 +1693,15 @@
       <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
@@ -1734,15 +1734,15 @@
       <selection activeCell="B34" sqref="B34:D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1750,43 +1750,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1797,9 +1797,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1808,43 +1808,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1853,9 +1853,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1864,42 +1864,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>37</v>
@@ -1909,22 +1909,22 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1940,20 +1940,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C063B9D-D463-454D-B64E-2E98DE8A2991}">
   <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1962,57 +1962,57 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -2021,9 +2021,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C12" s="11">
         <v>3</v>
@@ -2032,53 +2032,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -2087,9 +2087,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -2098,43 +2098,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>37</v>
@@ -2143,9 +2143,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2153,12 +2153,12 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0A3A2-5506-421F-BB1B-06A18F2D699E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB655652-8C8E-4D93-BA1C-48CE50278801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="125">
   <si>
     <t>Steps</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>=main()</t>
-  </si>
-  <si>
-    <t>= $Step1.toPlain()</t>
   </si>
   <si>
     <t>= $Step1.toMap()</t>
@@ -464,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -520,7 +517,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -626,7 +623,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R65"/>
+  <dimension ref="A2:R64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -905,7 +902,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -929,7 +926,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -960,67 +957,67 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1050,7 +1047,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1060,163 +1057,163 @@
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="M33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -1251,10 +1248,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -1270,84 +1267,84 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>14</v>
+      <c r="B51" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>23</v>
+      <c r="B57" t="s">
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>61</v>
@@ -1355,15 +1352,15 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>73</v>
@@ -1371,7 +1368,7 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>74</v>
@@ -1379,7 +1376,7 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>75</v>
@@ -1387,7 +1384,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>76</v>
@@ -1395,18 +1392,10 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1418,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2BE8C9-5872-405A-8490-2DC49555BAE6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -1547,7 +1536,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1571,7 +1560,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1600,66 +1589,66 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
@@ -1739,7 +1728,7 @@
     <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1755,24 +1744,24 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -1780,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
@@ -1799,7 +1788,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1815,20 +1804,20 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
         <v>94</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1836,15 +1825,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1855,7 +1844,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1878,7 +1867,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1886,45 +1875,45 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1948,7 +1937,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1967,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="11"/>
     </row>
@@ -1983,20 +1972,20 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -2004,15 +1993,15 @@
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -2023,7 +2012,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="11">
         <v>3</v>
@@ -2049,20 +2038,20 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -2070,15 +2059,15 @@
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -2089,7 +2078,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -2110,42 +2099,42 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2153,12 +2142,12 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_Convert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vpikus/Sources/OpenL/openl-tablets/STUDIO/org.openl.rules.test/test-resources/functionality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB655652-8C8E-4D93-BA1C-48CE50278801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF90E54-F715-424B-A075-3B60C799E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="35040" windowHeight="22500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -339,15 +339,9 @@
     <t>Test runMySpr runMySprTest</t>
   </si>
   <si>
-    <t>_res_["Step1"] : Double</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>_res_["Step2"] : Double</t>
-  </si>
-  <si>
     <t>Spreadsheet Map runMySpr2()</t>
   </si>
   <si>
@@ -372,18 +366,6 @@
     <t>Test runMySpr2 runMySprTest2</t>
   </si>
   <si>
-    <t>_res_["Value1_Step1"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["Value2_Step2"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["Value3_Step3"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["Value4_Step4"] : Double</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -406,6 +388,24 @@
   </si>
   <si>
     <t>= spr1(new Double[]{})</t>
+  </si>
+  <si>
+    <t>_res_["Step1"] : Integer</t>
+  </si>
+  <si>
+    <t>_res_["Step2"] : Integer</t>
+  </si>
+  <si>
+    <t>_res_["Value4_Step4"] : Integer</t>
+  </si>
+  <si>
+    <t>_res_["Value3_Step3"] : Integer</t>
+  </si>
+  <si>
+    <t>_res_["Value2_Step2"] : Integer</t>
+  </si>
+  <si>
+    <t>_res_["Value1_Step1"] : Integer</t>
   </si>
 </sst>
 </file>
@@ -799,25 +799,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -825,7 +825,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -855,7 +855,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -873,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -881,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -897,7 +897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
@@ -905,7 +905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -913,7 +913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -921,7 +921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
@@ -930,7 +930,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -939,7 +939,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
@@ -947,7 +947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
@@ -955,7 +955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>64</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
@@ -972,7 +972,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
@@ -980,7 +980,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>70</v>
       </c>
@@ -988,7 +988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>83</v>
       </c>
@@ -996,31 +996,31 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1028,7 +1028,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1036,7 +1036,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1044,7 +1044,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>35</v>
@@ -1054,7 +1054,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>37</v>
@@ -1108,7 +1108,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>36</v>
@@ -1162,7 +1162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>38</v>
@@ -1216,7 +1216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1224,7 +1224,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1232,13 +1232,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>3</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>13</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>14</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>17</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>19</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>23</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>59</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>27</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>66</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>68</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>70</v>
       </c>
@@ -1407,13 +1407,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2BE8C9-5872-405A-8490-2DC49555BAE6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1421,7 +1421,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1429,7 +1429,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1439,7 +1439,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1451,7 +1451,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1463,7 +1463,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1475,7 +1475,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1487,7 +1487,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1499,7 +1499,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1511,7 +1511,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1523,7 +1523,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>30</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
         <v>64</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
         <v>66</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="11" t="s">
         <v>68</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="11" t="s">
         <v>70</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="11" t="s">
         <v>83</v>
       </c>
@@ -1627,46 +1627,46 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="11"/>
     </row>
   </sheetData>
@@ -1682,15 +1682,15 @@
       <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
@@ -1719,19 +1719,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935C0ECB-472E-44D3-B497-A79F0D31D051}">
   <dimension ref="A2:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D58"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1747,13 +1747,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>93</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>90</v>
       </c>
@@ -1797,19 +1797,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>93</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>92</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
@@ -1853,18 +1853,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>101</v>
@@ -1872,20 +1872,20 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
         <v>97</v>
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
         <v>95</v>
@@ -1907,10 +1907,10 @@
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
         <v>96</v>
@@ -1929,20 +1929,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C063B9D-D463-454D-B64E-2E98DE8A2991}">
   <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1951,33 +1951,33 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="13" t="s">
         <v>93</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
         <v>92</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="11" t="s">
         <v>90</v>
       </c>
@@ -2021,29 +2021,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="13" t="s">
         <v>93</v>
       </c>
@@ -2054,20 +2054,20 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -2076,9 +2076,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -2087,41 +2087,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
         <v>97</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="11" t="s">
         <v>95</v>
       </c>
@@ -2142,10 +2142,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
         <v>96</v>
       </c>
